--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -1036,9 +1036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1166,7 +1168,7 @@
         <v>1001</v>
       </c>
       <c r="C5">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1177,7 +1179,18 @@
         <v>1001</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30004</v>
+      </c>
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -14,77 +14,98 @@
   <sheets>
     <sheet name="Drop" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>数量3</t>
+  </si>
+  <si>
+    <t>数量4</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Num3</t>
+  </si>
+  <si>
+    <t>Item4</t>
+  </si>
+  <si>
+    <t>Num4</t>
+  </si>
+  <si>
+    <t>所属场景</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>道具1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>数量1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>道具2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>数量2</t>
-  </si>
-  <si>
-    <t>道具3</t>
-  </si>
-  <si>
-    <t>数量3</t>
-  </si>
-  <si>
-    <t>道具4</t>
-  </si>
-  <si>
-    <t>数量4</t>
-  </si>
-  <si>
-    <t>道具5</t>
-  </si>
-  <si>
-    <t>数量5</t>
-  </si>
-  <si>
-    <t>int32</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Item1</t>
-  </si>
-  <si>
-    <t>Num1</t>
-  </si>
-  <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Num2</t>
-  </si>
-  <si>
-    <t>Item3</t>
-  </si>
-  <si>
-    <t>Num3</t>
-  </si>
-  <si>
-    <t>Item4</t>
-  </si>
-  <si>
-    <t>Num4</t>
-  </si>
-  <si>
-    <t>Item5</t>
-  </si>
-  <si>
-    <t>Num5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发几率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1036,120 +1057,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30001</v>
       </c>
@@ -1157,10 +1190,19 @@
         <v>1001</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1001</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30002</v>
       </c>
@@ -1168,10 +1210,13 @@
         <v>1001</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>30003</v>
       </c>
@@ -1179,10 +1224,19 @@
         <v>1001</v>
       </c>
       <c r="C6">
-        <v>-5</v>
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1001</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30004</v>
       </c>
@@ -1190,11 +1244,15 @@
         <v>1001</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1190,13 +1190,13 @@
         <v>1001</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1210,10 +1210,22 @@
         <v>1001</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1003</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1002</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1224,7 +1236,7 @@
         <v>1001</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1233,7 +1245,13 @@
         <v>1001</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1003</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1244,10 +1262,16 @@
         <v>1001</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1004</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1057,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1274,6 +1274,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30005</v>
+      </c>
+      <c r="E8">
+        <v>1005</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>30006</v>
+      </c>
+      <c r="E9">
+        <v>1006</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>30007</v>
+      </c>
+      <c r="E10">
+        <v>1005</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,7 @@
         <v>30001</v>
       </c>
       <c r="B4">
-        <v>1001</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -1207,7 +1207,7 @@
         <v>30002</v>
       </c>
       <c r="B5">
-        <v>1001</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1233,7 +1233,7 @@
         <v>30003</v>
       </c>
       <c r="B6">
-        <v>1001</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>80</v>
@@ -1259,7 +1259,7 @@
         <v>30004</v>
       </c>
       <c r="B7">
-        <v>1001</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1278,6 +1278,12 @@
       <c r="A8">
         <v>30005</v>
       </c>
+      <c r="B8">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="E8">
         <v>1005</v>
       </c>
@@ -1289,6 +1295,12 @@
       <c r="A9">
         <v>30006</v>
       </c>
+      <c r="B9">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
       <c r="E9">
         <v>1006</v>
       </c>
@@ -1299,6 +1311,12 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>30007</v>
+      </c>
+      <c r="B10">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
       </c>
       <c r="E10">
         <v>1005</v>

--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>111</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1210,7 +1210,7 @@
         <v>111</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1236,7 +1236,7 @@
         <v>111</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1262,7 +1262,7 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1282,7 +1282,7 @@
         <v>111</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>1005</v>
@@ -1299,7 +1299,7 @@
         <v>111</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>1006</v>
@@ -1316,7 +1316,7 @@
         <v>111</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>1005</v>

--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unityws\lulu_Survive\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\lulu_Survival\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -698,8 +698,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,268 +1063,270 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>30001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>111</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1003</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>30002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>111</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1003</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1002</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>30003</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>111</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1003</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>30004</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>111</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1004</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>30005</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>111</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1005</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>30006</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>111</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1006</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>30007</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>111</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>50</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1005</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Config/Drop.xlsx
+++ b/Config/Drop.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,35 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>道具3</t>
-  </si>
-  <si>
-    <t>数量3</t>
-  </si>
-  <si>
-    <t>数量4</t>
-  </si>
-  <si>
     <t>int32</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
-    <t>Num3</t>
-  </si>
-  <si>
-    <t>Item4</t>
-  </si>
-  <si>
-    <t>Num4</t>
-  </si>
-  <si>
     <t>所属场景</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -64,47 +43,78 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>道具1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Num2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Num1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>触发几率</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>20005</t>
+  </si>
+  <si>
+    <t>20006</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5;2,5;3,5;4,2;5,2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具;数量上限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1;5,3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2;2,3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1060,274 +1070,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>111</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1003</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B5" s="1">
-        <v>111</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1003</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B6" s="1">
-        <v>111</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B7" s="1">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>30005</v>
-      </c>
-      <c r="B8" s="1">
-        <v>111</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1005</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>30006</v>
-      </c>
-      <c r="B9" s="1">
-        <v>111</v>
-      </c>
-      <c r="C9" s="1">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1006</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>30007</v>
-      </c>
-      <c r="B10" s="1">
-        <v>111</v>
-      </c>
-      <c r="C10" s="1">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1005</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
